--- a/biology/Médecine/Ita_Wegman/Ita_Wegman.xlsx
+++ b/biology/Médecine/Ita_Wegman/Ita_Wegman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ita Wegman, née le 22 février 1876 à Karawang, et morte le 4 mars 1943 à Arlesheim, est une médecin et la fondatrice de la clinique anthroposophique qui porte son nom à Arlesheim, en Suisse. Elle fut la première responsable de la section médicale de l'université libre de science de l'esprit du Goethéanum, ainsi que la coautrice avec Rudolf Steiner du livre Données de base pour un élargissement de l'art de guérir selon les connaissances de la science spirituelle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ita Wegman naît d'une famille de colons hollandais à Karawang, à l'ouest de Java. 
 Âgée de 20 ans, elle a un premier contact avec la théosophie grâce à son professeur de chant et de piano qui devient son amie. Durant l'été 1902, elle rencontre Rudolf Steiner alors qu'elle va s'inscrire à la Société théosophique de Berlin. Désirant devenir médecin, elle part pour Zurich. Après une spécialisation en gynécologie, elle ouvre son premier cabinet à Zurich le 1er juillet 1917.
@@ -519,7 +533,7 @@
 Steiner fait à Dornach de nombreux exposés devant un cercle de médecins. Une introduction systématique à cette orientation médicale est rédigée dans un ouvrage, fruit de 11 mois de travail en commun, que Rudolf Steiner coécrit avec Ita Wegman. Steiner finit de corriger les épreuves du livre le 28 mars 1925, deux jours avant de mourir.
 Ita Wegman fait partie du premier Vorstand, le premier « comité directeur » de la nouvelle société anthroposophique fondée lors du Congrès de Noël de 1923, aux côtés d'Elisabeth Vreede, Marie Steiner, Albert Steffen, Guenther Wachsmuth et Rudolf Steiner. 
 Elle devient en outre la responsable de la section médicale de la Freie Hochschule (Université libre). 
-À partir de 1917, Wegman utilise un remède à base de gui en prétendant traiter le cancer, d'après des indications données par Steiner[1]. Un brevet pour ce médicament appelé « Iscar » est pris en 1918. Son amélioration débouche sur un produit diffusé en Suisse et en Allemagne par la société Weleda, l'Iscador[2], dont l'efficacité contre le cancer n'a  jamais été démontrée[3]. 
+À partir de 1917, Wegman utilise un remède à base de gui en prétendant traiter le cancer, d'après des indications données par Steiner. Un brevet pour ce médicament appelé « Iscar » est pris en 1918. Son amélioration débouche sur un produit diffusé en Suisse et en Allemagne par la société Weleda, l'Iscador, dont l'efficacité contre le cancer n'a  jamais été démontrée. 
 En 1934, Ita Wegman ainsi qu'Elisabeth Vreede (1879-1943) sont « suspendues » de leurs fonctions au sein du Vorstand. 
 Elles déterminent alors la constitution de L'Union des Groupes anthroposophiques libres. 
 Ces groupes délivrent des cartes de membres sans l'aval de Dornach. 
@@ -555,7 +569,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rudolf Steiner et Ita Wegman, Données de base pour un élargissement de l'art de guérir selon les connaissances de la science de l'esprit, Éditions Triades, 1978</t>
         </is>
